--- a/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_4_hemastix.xlsx
+++ b/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_4_hemastix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60786A67-D82A-4D5B-9D4D-C2F94017C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB96C519-042E-44D2-94E4-E3707C349244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="327">
   <si>
     <t>type</t>
   </si>
@@ -120,15 +120,6 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${u_district}, 0, 3) = substr(., 0, 3) and ${u_district} != 'KPENDJAL OUEST') or (if(${u_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
-  </si>
-  <si>
-    <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
-  </si>
-  <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par exemple: TCH0001 for TCHAOUDJO.</t>
-  </si>
-  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
@@ -151,12 +142,6 @@
   </si>
   <si>
     <t>Saisez le code QR manuellement</t>
-  </si>
-  <si>
-    <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
-  </si>
-  <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple: TCH0001 pour TCHAOUDJO</t>
   </si>
   <si>
     <t>${u_barcode_ok} = 'Non'</t>
@@ -1608,10 +1593,10 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1681,17 +1666,17 @@
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1">
       <c r="A2" s="45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="47" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F2" s="47"/>
       <c r="G2" s="9"/>
@@ -1743,11 +1728,11 @@
         <v>22</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="33" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F4" s="33"/>
       <c r="G4" s="26"/>
@@ -1793,7 +1778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="22" customFormat="1" ht="110.25">
+    <row r="6" spans="1:15" s="22" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1809,15 +1794,9 @@
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>34</v>
-      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1826,17 +1805,17 @@
     </row>
     <row r="7" spans="1:15" s="22" customFormat="1">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="8"/>
@@ -1851,33 +1830,27 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15" s="22" customFormat="1" ht="94.5">
+    <row r="8" spans="1:15" s="22" customFormat="1" ht="31.5">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>44</v>
-      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8" t="s">
@@ -1888,17 +1861,17 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="41"/>
@@ -1915,19 +1888,19 @@
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="36"/>
@@ -1942,10 +1915,10 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>20</v>
@@ -1967,10 +1940,10 @@
     </row>
     <row r="12" spans="1:15" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>20</v>
@@ -2032,7 +2005,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2044,129 +2017,129 @@
         <v>4</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>324</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2177,145 +2150,145 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F18" s="20"/>
     </row>
@@ -2326,4541 +2299,4541 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.5">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="31.5">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="31.5">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.5">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="31.5">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.5">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.5">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.5">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="31.5">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.5">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.5">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="31.5">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="31.5">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="31.5">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="31.5">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="31.5">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="31.5">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="31.5">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="31.5">
       <c r="A121" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G121" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G122" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G123" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G125" s="23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G126" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="31.5">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G127" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="31.5">
       <c r="A128" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G129" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G130" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="31.5">
       <c r="A132" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C132" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G132" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="31.5">
       <c r="A133" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C133" s="23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D133" s="23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G133" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="31.5">
       <c r="A134" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C134" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D134" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G134" s="23" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D135" s="23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C136" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G136" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D137" s="23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G137" s="23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C138" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G138" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D139" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G139" s="23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D140" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G140" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C141" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D141" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G141" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D142" s="23" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G142" s="23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="31.5">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C143" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D143" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="31.5">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C144" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D144" s="23" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G144" s="23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="31.5">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D145" s="23" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="31.5">
       <c r="A146" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C146" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D146" s="23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G146" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="31.5">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D148" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G148" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D149" s="23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G149" s="23" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D150" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G150" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D151" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D152" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G152" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="31.5">
       <c r="A153" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B153" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D153" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="31.5">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D154" s="23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G154" s="23" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D155" s="23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G155" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D156" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G156" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D157" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D159" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D160" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D161" s="23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D163" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D164" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D165" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D166" s="23" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D167" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D168" s="23" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="31.5">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D169" s="23" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="31.5">
       <c r="A170" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B170" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G170" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="31.5">
       <c r="A171" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B171" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D171" s="23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="31.5">
       <c r="A172" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B172" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D172" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G172" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="31.5">
       <c r="A173" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B173" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D173" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G173" s="23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="31.5">
       <c r="A174" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B174" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D174" s="23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G174" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="31.5">
       <c r="A175" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B175" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D175" s="23" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G175" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B176" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G176" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B177" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G177" s="23" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B178" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G178" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B179" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G179" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B180" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G180" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B181" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G181" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B182" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G182" s="23" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="31.5">
       <c r="A183" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B183" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G183" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="31.5">
       <c r="A184" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B184" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G184" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="31.5">
       <c r="A185" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B185" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G185" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="31.5">
       <c r="A186" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B186" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G186" s="23" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B187" s="23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G187" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B188" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G188" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B189" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G189" s="23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="31.5">
       <c r="A190" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B190" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G190" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="31.5">
       <c r="A191" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B191" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C191" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G191" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B192" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C192" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G192" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B193" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C193" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G193" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B194" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C194" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G194" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B195" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C195" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G195" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B196" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C196" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G196" s="23" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="31.5">
       <c r="A197" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B197" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C197" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G197" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="31.5">
       <c r="A198" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B198" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C198" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G198" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="31.5">
       <c r="A199" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C199" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G199" s="23" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="31.5">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B200" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C200" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G200" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="31.5">
       <c r="A201" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C201" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G201" s="23" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B202" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C202" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G202" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C203" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G203" s="23" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="31.5">
       <c r="A204" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B204" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C204" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G204" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="31.5">
       <c r="A205" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B205" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C205" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G205" s="23" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="31.5">
       <c r="A206" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B206" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C206" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G206" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="31.5">
       <c r="A207" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B207" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C207" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D207" s="23" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G207" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="31.5">
       <c r="A208" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B208" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C208" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G208" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="31.5">
       <c r="A209" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B209" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C209" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G209" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="31.5">
       <c r="A210" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B210" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C210" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G210" s="23" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="31.5">
       <c r="A211" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B211" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C211" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G211" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="31.5">
       <c r="A212" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B212" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C212" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G212" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B213" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C213" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G213" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B214" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C214" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G214" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B215" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C215" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G215" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B216" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C216" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G216" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B217" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C217" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G217" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B218" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C218" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G218" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="31.5">
       <c r="A219" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B219" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C219" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G219" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="31.5">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B220" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C220" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D220" s="23" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G220" s="23" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="31.5">
       <c r="A221" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B221" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C221" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G221" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="31.5">
       <c r="A222" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B222" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C222" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G222" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B223" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C223" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G223" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B224" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C224" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G224" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B225" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C225" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D225" s="23" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G225" s="23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C226" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G226" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C227" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G227" s="23" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C228" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D228" s="23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G228" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C229" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D229" s="23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G229" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C230" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D230" s="23" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G230" s="23" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C231" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D231" s="23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G231" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C232" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D232" s="23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G232" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C233" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D233" s="23" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G233" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="31.5">
       <c r="A234" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C234" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G234" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="31.5">
       <c r="A235" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B235" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C235" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G235" s="23" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B236" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C236" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G236" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B237" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C237" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G237" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B238" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C238" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D238" s="23" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G238" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="31.5">
       <c r="A239" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B239" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C239" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D239" s="23" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G239" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="31.5">
       <c r="A240" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B240" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C240" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G240" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="31.5">
       <c r="A241" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B241" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C241" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G241" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C242" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G242" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B243" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C243" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D243" s="23" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G243" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B244" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C244" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D244" s="23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G244" s="23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B245" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C245" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D245" s="23" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G245" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B246" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C246" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D246" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G246" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="31.5">
       <c r="A247" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B247" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C247" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D247" s="23" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G247" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="31.5">
       <c r="A248" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B248" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C248" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D248" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G248" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="31.5">
       <c r="A249" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B249" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C249" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D249" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G249" s="23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B250" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C250" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D250" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G250" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B251" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C251" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D251" s="23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G251" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B252" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C252" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D252" s="23" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G252" s="23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="31.5">
       <c r="A253" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B253" s="23" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C253" s="23" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D253" s="23" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G253" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="31.5">
       <c r="A254" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C254" s="23" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G254" s="23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C255" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D255" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G255" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C256" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G256" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="47.25">
       <c r="A257" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C257" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G257" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="47.25">
       <c r="A258" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C258" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G258" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C259" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G259" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B261" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C261" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G261" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C262" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G262" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C263" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="31.5">
       <c r="A264" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C264" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G264" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="31.5">
       <c r="A265" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C265" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G265" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C266" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G266" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C267" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G267" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G268" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C269" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G269" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G270" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G271" s="23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C272" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G272" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C273" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G273" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C274" s="23" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G274" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C275" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G275" s="23" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C276" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D276" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G276" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G277" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="31.5">
       <c r="A278" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C278" s="23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D278" s="23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G278" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="31.5">
       <c r="A279" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C279" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D279" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G279" s="23" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="31.5">
       <c r="A280" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C280" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D280" s="23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G280" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="31.5">
       <c r="A281" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C281" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D281" s="23" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G281" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="31.5">
       <c r="A282" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C282" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D282" s="23" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G282" s="23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B283" s="23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C283" s="23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D283" s="23" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G283" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B284" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C284" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D284" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G284" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C285" s="23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D285" s="23" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G285" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B286" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C286" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D286" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G286" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B287" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C287" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D287" s="23" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G287" s="23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8188,24 +8161,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_4_hemastix.xlsx
+++ b/SCH-STH/Impact assessments/Mali/ml_sch_sth_impact_202304_4_hemastix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Mali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FF409E-8677-40C0-89E7-1B9C6731C52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D6F2E-5D34-4793-AD1D-F96E7845CEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="321">
   <si>
     <t>type</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>select_one grading</t>
-  </si>
-  <si>
-    <t>ml_sch_sth_impact_202304_4_hemastix</t>
-  </si>
-  <si>
-    <t>(2023 Avril) - 4. SCH/STH - Hemastix</t>
   </si>
   <si>
     <t>BAMAKO</t>
@@ -1005,12 +999,36 @@
   <si>
     <t>village_list = ${u_site_name}</t>
   </si>
+  <si>
+    <t>u_urine_vol</t>
+  </si>
+  <si>
+    <t>Volume d’urine : Consigner les millilitres (ml) d’urine prélevés sur la personne</t>
+  </si>
+  <si>
+    <t>. &gt;=0 and .&lt; 11</t>
+  </si>
+  <si>
+    <t>Le volume doit être limité à 10ml</t>
+  </si>
+  <si>
+    <t>u_sh_egp_10ml</t>
+  </si>
+  <si>
+    <t>Nombre d'œufs par 10 ml</t>
+  </si>
+  <si>
+    <t>ml_sch_sth_impact_202304_4_hemastix V2</t>
+  </si>
+  <si>
+    <t>(2023 Avril) - 4. SCH/STH - Urines</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1071,6 +1089,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1162,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1269,6 +1294,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1552,13 +1581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1615,7 +1644,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1">
@@ -1626,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="9"/>
@@ -1642,7 +1671,7 @@
     </row>
     <row r="3" spans="1:13" s="17" customFormat="1">
       <c r="A3" s="36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>14</v>
@@ -1664,13 +1693,13 @@
     </row>
     <row r="4" spans="1:13" s="17" customFormat="1" ht="30.75">
       <c r="A4" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="21"/>
@@ -1688,7 +1717,7 @@
     </row>
     <row r="5" spans="1:13" s="17" customFormat="1">
       <c r="A5" s="36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>18</v>
@@ -1707,18 +1736,18 @@
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="33" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="31.5">
       <c r="A6" s="36" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="36"/>
@@ -1731,7 +1760,7 @@
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1">
@@ -1739,10 +1768,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="8"/>
@@ -1761,10 +1790,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="8"/>
@@ -1783,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="8"/>
@@ -1794,7 +1823,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>13</v>
@@ -1810,7 +1839,7 @@
         <v>42</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>41</v>
@@ -1827,53 +1856,65 @@
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="31.5">
       <c r="A11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="29"/>
       <c r="F12" s="9"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="29"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12"/>
       <c r="E13" s="29"/>
       <c r="F13" s="9"/>
       <c r="G13" s="31"/>
@@ -1883,19 +1924,55 @@
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+    <row r="14" spans="1:13" s="3" customFormat="1">
+      <c r="A14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="C14" s="30"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="11"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="10"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" s="3" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1967,68 +2044,68 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2041,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
@@ -2054,10 +2131,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
@@ -2067,10 +2144,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
@@ -2080,10 +2157,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
@@ -2100,13 +2177,13 @@
         <v>30</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="15"/>
     </row>
@@ -2115,13 +2192,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="15"/>
     </row>
@@ -2130,13 +2207,13 @@
         <v>30</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="15"/>
     </row>
@@ -2145,13 +2222,13 @@
         <v>30</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E19" s="15"/>
     </row>
@@ -2166,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="15"/>
     </row>
@@ -2175,13 +2252,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="15"/>
     </row>
@@ -2190,13 +2267,13 @@
         <v>30</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="15"/>
     </row>
@@ -2205,13 +2282,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23" s="15"/>
     </row>
@@ -2224,13 +2301,13 @@
         <v>31</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2238,13 +2315,13 @@
         <v>31</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2252,13 +2329,13 @@
         <v>31</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2266,13 +2343,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2280,13 +2357,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2294,13 +2371,13 @@
         <v>31</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2308,13 +2385,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2322,13 +2399,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2336,13 +2413,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2350,13 +2427,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2364,13 +2441,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2378,13 +2455,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2392,13 +2469,13 @@
         <v>31</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2406,13 +2483,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2420,13 +2497,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2434,13 +2511,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2448,13 +2525,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2462,13 +2539,13 @@
         <v>31</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2476,13 +2553,13 @@
         <v>31</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2490,13 +2567,13 @@
         <v>31</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2504,13 +2581,13 @@
         <v>31</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2518,13 +2595,13 @@
         <v>31</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2532,13 +2609,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2546,13 +2623,13 @@
         <v>31</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2560,13 +2637,13 @@
         <v>31</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2574,13 +2651,13 @@
         <v>31</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2588,13 +2665,13 @@
         <v>31</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2602,13 +2679,13 @@
         <v>31</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="31.5">
@@ -2616,13 +2693,13 @@
         <v>31</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5">
@@ -2630,13 +2707,13 @@
         <v>31</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.5">
@@ -2644,13 +2721,13 @@
         <v>31</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="31.5">
@@ -2658,13 +2735,13 @@
         <v>31</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="31.5">
@@ -2672,13 +2749,13 @@
         <v>31</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="31.5">
@@ -2686,13 +2763,13 @@
         <v>31</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="31.5">
@@ -2700,13 +2777,13 @@
         <v>31</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="31.5">
@@ -2714,13 +2791,13 @@
         <v>31</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="31.5">
@@ -2728,13 +2805,13 @@
         <v>31</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="31.5">
@@ -2742,13 +2819,13 @@
         <v>31</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2756,10 +2833,10 @@
         <v>31</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>36</v>
@@ -2770,10 +2847,10 @@
         <v>31</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>36</v>
@@ -2784,10 +2861,10 @@
         <v>31</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>36</v>
@@ -2798,10 +2875,10 @@
         <v>31</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>36</v>
@@ -2812,10 +2889,10 @@
         <v>31</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>36</v>
@@ -2826,10 +2903,10 @@
         <v>31</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>36</v>
@@ -2840,10 +2917,10 @@
         <v>31</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>36</v>
@@ -2854,10 +2931,10 @@
         <v>31</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>36</v>
@@ -2868,10 +2945,10 @@
         <v>31</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>36</v>
@@ -2882,10 +2959,10 @@
         <v>31</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E72" s="19" t="s">
         <v>36</v>
@@ -2896,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="19" t="s">
         <v>36</v>
@@ -2910,10 +2987,10 @@
         <v>31</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>36</v>
@@ -2924,13 +3001,13 @@
         <v>31</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2938,13 +3015,13 @@
         <v>31</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2952,13 +3029,13 @@
         <v>31</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2966,13 +3043,13 @@
         <v>31</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2980,13 +3057,13 @@
         <v>31</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2994,13 +3071,13 @@
         <v>31</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3008,13 +3085,13 @@
         <v>31</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3022,13 +3099,13 @@
         <v>31</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3036,13 +3113,13 @@
         <v>31</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3050,13 +3127,13 @@
         <v>31</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3064,13 +3141,13 @@
         <v>31</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3078,13 +3155,13 @@
         <v>31</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3092,13 +3169,13 @@
         <v>31</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3106,13 +3183,13 @@
         <v>31</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3120,13 +3197,13 @@
         <v>31</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3134,13 +3211,13 @@
         <v>31</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3148,13 +3225,13 @@
         <v>31</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3162,13 +3239,13 @@
         <v>31</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3176,13 +3253,13 @@
         <v>31</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3190,13 +3267,13 @@
         <v>31</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3204,13 +3281,13 @@
         <v>31</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3218,13 +3295,13 @@
         <v>31</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3232,13 +3309,13 @@
         <v>31</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3246,13 +3323,13 @@
         <v>31</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3260,13 +3337,13 @@
         <v>31</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3274,13 +3351,13 @@
         <v>31</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3288,13 +3365,13 @@
         <v>31</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3302,13 +3379,13 @@
         <v>31</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3316,13 +3393,13 @@
         <v>31</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3330,13 +3407,13 @@
         <v>31</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3344,13 +3421,13 @@
         <v>32</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3358,13 +3435,13 @@
         <v>32</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3372,13 +3449,13 @@
         <v>32</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3386,13 +3463,13 @@
         <v>32</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3400,13 +3477,13 @@
         <v>32</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3414,13 +3491,13 @@
         <v>32</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3428,13 +3505,13 @@
         <v>32</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3442,13 +3519,13 @@
         <v>32</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3456,13 +3533,13 @@
         <v>32</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3470,13 +3547,13 @@
         <v>32</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3484,13 +3561,13 @@
         <v>32</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3498,13 +3575,13 @@
         <v>32</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="31.5">
@@ -3512,13 +3589,13 @@
         <v>32</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="31.5">
@@ -3526,13 +3603,13 @@
         <v>32</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="31.5">
@@ -3540,13 +3617,13 @@
         <v>32</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="31.5">
@@ -3554,13 +3631,13 @@
         <v>32</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="31.5">
@@ -3568,13 +3645,13 @@
         <v>32</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="31.5">
@@ -3582,13 +3659,13 @@
         <v>32</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="31.5">
@@ -3596,13 +3673,13 @@
         <v>32</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="31.5">
@@ -3610,13 +3687,13 @@
         <v>32</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="31.5">
@@ -3624,13 +3701,13 @@
         <v>32</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3638,13 +3715,13 @@
         <v>32</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3652,13 +3729,13 @@
         <v>32</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3666,13 +3743,13 @@
         <v>32</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3680,13 +3757,13 @@
         <v>32</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3694,13 +3771,13 @@
         <v>32</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="31.5">
@@ -3708,13 +3785,13 @@
         <v>32</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="31.5">
@@ -3722,13 +3799,13 @@
         <v>32</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3736,13 +3813,13 @@
         <v>32</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3750,13 +3827,13 @@
         <v>32</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3764,13 +3841,13 @@
         <v>32</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="31.5">
@@ -3778,13 +3855,13 @@
         <v>32</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.5">
@@ -3792,13 +3869,13 @@
         <v>32</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="31.5">
@@ -3806,13 +3883,13 @@
         <v>32</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3820,13 +3897,13 @@
         <v>32</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3834,13 +3911,13 @@
         <v>32</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3848,13 +3925,13 @@
         <v>32</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3862,13 +3939,13 @@
         <v>32</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3876,13 +3953,13 @@
         <v>32</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3890,13 +3967,13 @@
         <v>32</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3904,13 +3981,13 @@
         <v>32</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3918,13 +3995,13 @@
         <v>32</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="31.5">
@@ -3932,13 +4009,13 @@
         <v>32</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="31.5">
@@ -3946,13 +4023,13 @@
         <v>32</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="31.5">
@@ -3960,13 +4037,13 @@
         <v>32</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="31.5">
@@ -3974,13 +4051,13 @@
         <v>32</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="31.5">
@@ -3988,13 +4065,13 @@
         <v>32</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4002,13 +4079,13 @@
         <v>32</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4016,13 +4093,13 @@
         <v>32</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4030,13 +4107,13 @@
         <v>32</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4044,13 +4121,13 @@
         <v>32</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4058,13 +4135,13 @@
         <v>32</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="31.5">
@@ -4072,13 +4149,13 @@
         <v>32</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="31.5">
@@ -4086,13 +4163,13 @@
         <v>32</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4100,13 +4177,13 @@
         <v>32</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4114,13 +4191,13 @@
         <v>32</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4128,13 +4205,13 @@
         <v>32</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4142,13 +4219,13 @@
         <v>32</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4156,13 +4233,13 @@
         <v>32</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4170,13 +4247,13 @@
         <v>32</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4184,13 +4261,13 @@
         <v>32</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4198,13 +4275,13 @@
         <v>32</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4212,13 +4289,13 @@
         <v>32</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4226,13 +4303,13 @@
         <v>32</v>
       </c>
       <c r="B169" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4240,13 +4317,13 @@
         <v>32</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4254,13 +4331,13 @@
         <v>32</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4268,13 +4345,13 @@
         <v>32</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4282,13 +4359,13 @@
         <v>32</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="31.5">
@@ -4296,13 +4373,13 @@
         <v>32</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="31.5">
@@ -4310,13 +4387,13 @@
         <v>32</v>
       </c>
       <c r="B175" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="31.5">
@@ -4324,13 +4401,13 @@
         <v>32</v>
       </c>
       <c r="B176" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="31.5">
@@ -4338,13 +4415,13 @@
         <v>32</v>
       </c>
       <c r="B177" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="31.5">
@@ -4352,13 +4429,13 @@
         <v>32</v>
       </c>
       <c r="B178" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="31.5">
@@ -4366,13 +4443,13 @@
         <v>32</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="31.5">
@@ -4380,13 +4457,13 @@
         <v>32</v>
       </c>
       <c r="B180" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4394,13 +4471,13 @@
         <v>32</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4408,13 +4485,13 @@
         <v>32</v>
       </c>
       <c r="B182" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4422,13 +4499,13 @@
         <v>32</v>
       </c>
       <c r="B183" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C183" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4436,13 +4513,13 @@
         <v>32</v>
       </c>
       <c r="B184" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C184" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4450,13 +4527,13 @@
         <v>32</v>
       </c>
       <c r="B185" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C185" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4464,13 +4541,13 @@
         <v>32</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C186" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4478,13 +4555,13 @@
         <v>32</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C187" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="31.5">
@@ -4492,13 +4569,13 @@
         <v>32</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C188" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="31.5">
@@ -4506,13 +4583,13 @@
         <v>32</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C189" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="31.5">
@@ -4520,13 +4597,13 @@
         <v>32</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C190" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="31.5">
@@ -4534,13 +4611,13 @@
         <v>32</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C191" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4548,13 +4625,13 @@
         <v>32</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4562,13 +4639,13 @@
         <v>32</v>
       </c>
       <c r="B193" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C193" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4576,13 +4653,13 @@
         <v>32</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C194" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="31.5">
@@ -4590,13 +4667,13 @@
         <v>32</v>
       </c>
       <c r="B195" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C195" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="31.5">
@@ -4604,13 +4681,13 @@
         <v>32</v>
       </c>
       <c r="B196" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C196" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4618,13 +4695,13 @@
         <v>32</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C197" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4632,13 +4709,13 @@
         <v>32</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C198" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4646,13 +4723,13 @@
         <v>32</v>
       </c>
       <c r="B199" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4660,13 +4737,13 @@
         <v>32</v>
       </c>
       <c r="B200" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C200" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4674,13 +4751,13 @@
         <v>32</v>
       </c>
       <c r="B201" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="31.5">
@@ -4688,13 +4765,13 @@
         <v>32</v>
       </c>
       <c r="B202" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="31.5">
@@ -4702,13 +4779,13 @@
         <v>32</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F203" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="31.5">
@@ -4716,13 +4793,13 @@
         <v>32</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F204" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="31.5">
@@ -4730,13 +4807,13 @@
         <v>32</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F205" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="31.5">
@@ -4744,13 +4821,13 @@
         <v>32</v>
       </c>
       <c r="B206" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C206" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F206" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4758,13 +4835,13 @@
         <v>32</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C207" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F207" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4772,13 +4849,13 @@
         <v>32</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C208" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F208" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="31.5">
@@ -4786,13 +4863,13 @@
         <v>32</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C209" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F209" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="31.5">
@@ -4800,13 +4877,13 @@
         <v>32</v>
       </c>
       <c r="B210" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C210" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F210" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="31.5">
@@ -4814,13 +4891,13 @@
         <v>32</v>
       </c>
       <c r="B211" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C211" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F211" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="31.5">
@@ -4828,13 +4905,13 @@
         <v>32</v>
       </c>
       <c r="B212" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C212" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F212" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="31.5">
@@ -4842,13 +4919,13 @@
         <v>32</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C213" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F213" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="31.5">
@@ -4856,13 +4933,13 @@
         <v>32</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C214" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F214" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="31.5">
@@ -4870,13 +4947,13 @@
         <v>32</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C215" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F215" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="31.5">
@@ -4884,13 +4961,13 @@
         <v>32</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C216" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F216" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="31.5">
@@ -4898,13 +4975,13 @@
         <v>32</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C217" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4912,13 +4989,13 @@
         <v>32</v>
       </c>
       <c r="B218" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C218" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F218" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4926,13 +5003,13 @@
         <v>32</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C219" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F219" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4940,13 +5017,13 @@
         <v>32</v>
       </c>
       <c r="B220" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C220" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F220" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4954,13 +5031,13 @@
         <v>32</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C221" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F221" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4968,13 +5045,13 @@
         <v>32</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C222" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F222" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4982,13 +5059,13 @@
         <v>32</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C223" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F223" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="31.5">
@@ -4996,13 +5073,13 @@
         <v>32</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C224" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F224" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="31.5">
@@ -5010,13 +5087,13 @@
         <v>32</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C225" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F225" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="31.5">
@@ -5024,13 +5101,13 @@
         <v>32</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C226" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F226" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="31.5">
@@ -5038,13 +5115,13 @@
         <v>32</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C227" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F227" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5052,13 +5129,13 @@
         <v>32</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C228" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F228" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5066,13 +5143,13 @@
         <v>32</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C229" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F229" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5080,13 +5157,13 @@
         <v>32</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C230" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F230" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5094,13 +5171,13 @@
         <v>32</v>
       </c>
       <c r="B231" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C231" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F231" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5108,13 +5185,13 @@
         <v>32</v>
       </c>
       <c r="B232" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C232" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F232" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5122,13 +5199,13 @@
         <v>32</v>
       </c>
       <c r="B233" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C233" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F233" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5136,13 +5213,13 @@
         <v>32</v>
       </c>
       <c r="B234" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C234" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F234" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5150,13 +5227,13 @@
         <v>32</v>
       </c>
       <c r="B235" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C235" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F235" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5164,13 +5241,13 @@
         <v>32</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C236" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F236" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5178,13 +5255,13 @@
         <v>32</v>
       </c>
       <c r="B237" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C237" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F237" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5192,13 +5269,13 @@
         <v>32</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C238" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F238" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="31.5">
@@ -5206,13 +5283,13 @@
         <v>32</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C239" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F239" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="31.5">
@@ -5220,13 +5297,13 @@
         <v>32</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C240" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F240" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5234,13 +5311,13 @@
         <v>32</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C241" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F241" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5248,13 +5325,13 @@
         <v>32</v>
       </c>
       <c r="B242" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C242" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F242" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5262,13 +5339,13 @@
         <v>32</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C243" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F243" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="31.5">
@@ -5276,13 +5353,13 @@
         <v>32</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C244" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F244" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="31.5">
@@ -5290,13 +5367,13 @@
         <v>32</v>
       </c>
       <c r="B245" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C245" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F245" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="31.5">
@@ -5304,13 +5381,13 @@
         <v>32</v>
       </c>
       <c r="B246" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C246" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F246" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5318,13 +5395,13 @@
         <v>32</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C247" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F247" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5332,13 +5409,13 @@
         <v>32</v>
       </c>
       <c r="B248" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C248" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F248" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5346,13 +5423,13 @@
         <v>32</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C249" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F249" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5360,13 +5437,13 @@
         <v>32</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C250" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F250" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5374,13 +5451,13 @@
         <v>32</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="31.5">
@@ -5388,13 +5465,13 @@
         <v>32</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="31.5">
@@ -5402,13 +5479,13 @@
         <v>32</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="31.5">
@@ -5416,13 +5493,13 @@
         <v>32</v>
       </c>
       <c r="B254" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C254" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F254" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5430,13 +5507,13 @@
         <v>32</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C255" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F255" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5444,13 +5521,13 @@
         <v>32</v>
       </c>
       <c r="B256" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C256" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F256" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5458,13 +5535,13 @@
         <v>32</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C257" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F257" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="31.5">
@@ -5472,13 +5549,13 @@
         <v>32</v>
       </c>
       <c r="B258" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C258" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F258" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="31.5">
@@ -5486,13 +5563,13 @@
         <v>32</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C259" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F259" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5500,13 +5577,13 @@
         <v>32</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C260" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F260" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5514,13 +5591,13 @@
         <v>32</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C261" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F261" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="47.25">
@@ -5528,13 +5605,13 @@
         <v>32</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C262" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F262" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="47.25">
@@ -5542,13 +5619,13 @@
         <v>32</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C263" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F263" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5556,13 +5633,13 @@
         <v>32</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C264" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F264" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5570,13 +5647,13 @@
         <v>32</v>
       </c>
       <c r="B265" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C265" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F265" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5584,13 +5661,13 @@
         <v>32</v>
       </c>
       <c r="B266" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C266" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F266" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5598,13 +5675,13 @@
         <v>32</v>
       </c>
       <c r="B267" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C267" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F267" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5612,13 +5689,13 @@
         <v>32</v>
       </c>
       <c r="B268" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C268" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="31.5">
@@ -5626,13 +5703,13 @@
         <v>32</v>
       </c>
       <c r="B269" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C269" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F269" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="31.5">
@@ -5640,13 +5717,13 @@
         <v>32</v>
       </c>
       <c r="B270" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C270" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F270" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5654,13 +5731,13 @@
         <v>32</v>
       </c>
       <c r="B271" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C271" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F271" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5668,13 +5745,13 @@
         <v>32</v>
       </c>
       <c r="B272" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C272" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F272" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5682,13 +5759,13 @@
         <v>32</v>
       </c>
       <c r="B273" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C273" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F273" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -5696,13 +5773,13 @@
         <v>32</v>
       </c>
       <c r="B274" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C274" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F274" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5710,13 +5787,13 @@
         <v>32</v>
       </c>
       <c r="B275" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C275" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F275" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5724,13 +5801,13 @@
         <v>32</v>
       </c>
       <c r="B276" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C276" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F276" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5738,13 +5815,13 @@
         <v>32</v>
       </c>
       <c r="B277" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C277" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F277" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5752,13 +5829,13 @@
         <v>32</v>
       </c>
       <c r="B278" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C278" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F278" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5766,13 +5843,13 @@
         <v>32</v>
       </c>
       <c r="B279" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C279" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F279" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5780,13 +5857,13 @@
         <v>32</v>
       </c>
       <c r="B280" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C280" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F280" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -5794,13 +5871,13 @@
         <v>32</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C281" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F281" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -5808,13 +5885,13 @@
         <v>32</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C282" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F282" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="31.5">
@@ -5822,13 +5899,13 @@
         <v>32</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C283" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F283" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="31.5">
@@ -5836,13 +5913,13 @@
         <v>32</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C284" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F284" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="31.5">
@@ -5850,13 +5927,13 @@
         <v>32</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C285" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F285" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="31.5">
@@ -5864,13 +5941,13 @@
         <v>32</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C286" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F286" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="31.5">
@@ -5878,13 +5955,13 @@
         <v>32</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C287" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F287" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -5892,13 +5969,13 @@
         <v>32</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C288" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F288" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -5906,13 +5983,13 @@
         <v>32</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C289" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F289" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -5920,13 +5997,13 @@
         <v>32</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C290" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F290" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -5934,13 +6011,13 @@
         <v>32</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C291" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F291" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -5948,18 +6025,18 @@
         <v>32</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C292" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F292" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="31.5">
       <c r="A294" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B294" s="39">
         <v>101</v>
@@ -5968,12 +6045,12 @@
         <v>101</v>
       </c>
       <c r="G294" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B295" s="39">
         <v>102</v>
@@ -5982,12 +6059,12 @@
         <v>102</v>
       </c>
       <c r="G295" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="31.5">
       <c r="A296" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B296" s="39">
         <v>103</v>
@@ -5996,12 +6073,12 @@
         <v>103</v>
       </c>
       <c r="G296" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="31.5">
       <c r="A297" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B297" s="39">
         <v>104</v>
@@ -6010,12 +6087,12 @@
         <v>104</v>
       </c>
       <c r="G297" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B298" s="39">
         <v>105</v>
@@ -6024,12 +6101,12 @@
         <v>105</v>
       </c>
       <c r="G298" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:7">
       <c r="A299" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B299" s="39">
         <v>106</v>
@@ -6038,12 +6115,12 @@
         <v>106</v>
       </c>
       <c r="G299" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B300" s="39">
         <v>107</v>
@@ -6052,12 +6129,12 @@
         <v>107</v>
       </c>
       <c r="G300" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B301" s="39">
         <v>108</v>
@@ -6066,12 +6143,12 @@
         <v>108</v>
       </c>
       <c r="G301" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="31.5">
       <c r="A302" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B302" s="39">
         <v>109</v>
@@ -6080,12 +6157,12 @@
         <v>109</v>
       </c>
       <c r="G302" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="31.5">
       <c r="A303" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B303" s="39">
         <v>110</v>
@@ -6094,12 +6171,12 @@
         <v>110</v>
       </c>
       <c r="G303" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="31.5">
       <c r="A304" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B304" s="39">
         <v>111</v>
@@ -6108,12 +6185,12 @@
         <v>111</v>
       </c>
       <c r="G304" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="31.5">
       <c r="A305" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B305" s="39">
         <v>112</v>
@@ -6122,12 +6199,12 @@
         <v>112</v>
       </c>
       <c r="G305" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="31.5">
       <c r="A306" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B306" s="39">
         <v>113</v>
@@ -6136,12 +6213,12 @@
         <v>113</v>
       </c>
       <c r="G306" s="19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="31.5">
       <c r="A307" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B307" s="39">
         <v>114</v>
@@ -6150,12 +6227,12 @@
         <v>114</v>
       </c>
       <c r="G307" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="31.5">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B308" s="39">
         <v>115</v>
@@ -6164,12 +6241,12 @@
         <v>115</v>
       </c>
       <c r="G308" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="31.5">
       <c r="A309" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B309" s="39">
         <v>116</v>
@@ -6178,12 +6255,12 @@
         <v>116</v>
       </c>
       <c r="G309" s="19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B310" s="39">
         <v>117</v>
@@ -6192,12 +6269,12 @@
         <v>117</v>
       </c>
       <c r="G310" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B311" s="39">
         <v>118</v>
@@ -6206,12 +6283,12 @@
         <v>118</v>
       </c>
       <c r="G311" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="312" spans="1:7">
       <c r="A312" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B312" s="39">
         <v>119</v>
@@ -6220,12 +6297,12 @@
         <v>119</v>
       </c>
       <c r="G312" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:7">
       <c r="A313" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B313" s="39">
         <v>120</v>
@@ -6234,12 +6311,12 @@
         <v>120</v>
       </c>
       <c r="G313" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="314" spans="1:7">
       <c r="A314" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B314" s="39">
         <v>121</v>
@@ -6248,12 +6325,12 @@
         <v>121</v>
       </c>
       <c r="G314" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="31.5">
       <c r="A315" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B315" s="39">
         <v>122</v>
@@ -6262,12 +6339,12 @@
         <v>122</v>
       </c>
       <c r="G315" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="31.5">
       <c r="A316" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B316" s="39">
         <v>123</v>
@@ -6276,12 +6353,12 @@
         <v>123</v>
       </c>
       <c r="G316" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="31.5">
       <c r="A317" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B317" s="39">
         <v>124</v>
@@ -6290,12 +6367,12 @@
         <v>124</v>
       </c>
       <c r="G317" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="318" spans="1:7">
       <c r="A318" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B318" s="39">
         <v>125</v>
@@ -6304,12 +6381,12 @@
         <v>125</v>
       </c>
       <c r="G318" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B319" s="39">
         <v>126</v>
@@ -6318,12 +6395,12 @@
         <v>126</v>
       </c>
       <c r="G319" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B320" s="39">
         <v>127</v>
@@ -6332,12 +6409,12 @@
         <v>127</v>
       </c>
       <c r="G320" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B321" s="39">
         <v>128</v>
@@ -6346,12 +6423,12 @@
         <v>128</v>
       </c>
       <c r="G321" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B322" s="39">
         <v>129</v>
@@ -6360,12 +6437,12 @@
         <v>129</v>
       </c>
       <c r="G322" s="19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B323" s="39">
         <v>130</v>
@@ -6374,12 +6451,12 @@
         <v>130</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="31.5">
       <c r="A324" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B324" s="39">
         <v>131</v>
@@ -6388,12 +6465,12 @@
         <v>131</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="31.5">
       <c r="A325" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B325" s="39">
         <v>132</v>
@@ -6402,12 +6479,12 @@
         <v>132</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="31.5">
       <c r="A326" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B326" s="39">
         <v>133</v>
@@ -6416,12 +6493,12 @@
         <v>133</v>
       </c>
       <c r="G326" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="31.5">
       <c r="A327" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B327" s="39">
         <v>134</v>
@@ -6430,12 +6507,12 @@
         <v>134</v>
       </c>
       <c r="G327" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="31.5">
       <c r="A328" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B328" s="39">
         <v>135</v>
@@ -6444,12 +6521,12 @@
         <v>135</v>
       </c>
       <c r="G328" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B329" s="39">
         <v>136</v>
@@ -6458,12 +6535,12 @@
         <v>136</v>
       </c>
       <c r="G329" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="31.5">
       <c r="A330" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B330" s="39">
         <v>137</v>
@@ -6472,12 +6549,12 @@
         <v>137</v>
       </c>
       <c r="G330" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="47.25">
       <c r="A331" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B331" s="39">
         <v>138</v>
@@ -6486,12 +6563,12 @@
         <v>138</v>
       </c>
       <c r="G331" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B332" s="39">
         <v>139</v>
@@ -6500,12 +6577,12 @@
         <v>139</v>
       </c>
       <c r="G332" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B333" s="39">
         <v>140</v>
@@ -6514,12 +6591,12 @@
         <v>140</v>
       </c>
       <c r="G333" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="31.5">
       <c r="A334" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B334" s="39">
         <v>141</v>
@@ -6528,12 +6605,12 @@
         <v>141</v>
       </c>
       <c r="G334" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="31.5">
       <c r="A335" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B335" s="39">
         <v>142</v>
@@ -6542,12 +6619,12 @@
         <v>142</v>
       </c>
       <c r="G335" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B336" s="39">
         <v>143</v>
@@ -6556,12 +6633,12 @@
         <v>143</v>
       </c>
       <c r="G336" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="31.5">
       <c r="A337" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B337" s="39">
         <v>144</v>
@@ -6570,12 +6647,12 @@
         <v>144</v>
       </c>
       <c r="G337" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="31.5">
       <c r="A338" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B338" s="39">
         <v>145</v>
@@ -6584,12 +6661,12 @@
         <v>145</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="31.5">
       <c r="A339" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B339" s="39">
         <v>146</v>
@@ -6598,12 +6675,12 @@
         <v>146</v>
       </c>
       <c r="G339" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B340" s="39">
         <v>147</v>
@@ -6612,12 +6689,12 @@
         <v>147</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="31.5">
       <c r="A341" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B341" s="39">
         <v>148</v>
@@ -6626,12 +6703,12 @@
         <v>148</v>
       </c>
       <c r="G341" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B342" s="39">
         <v>149</v>
@@ -6640,12 +6717,12 @@
         <v>149</v>
       </c>
       <c r="G342" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B343" s="39">
         <v>150</v>
@@ -6654,12 +6731,12 @@
         <v>150</v>
       </c>
       <c r="G343" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="47.25">
       <c r="A344" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B344" s="39">
         <v>151</v>
@@ -6668,12 +6745,12 @@
         <v>151</v>
       </c>
       <c r="G344" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="31.5">
       <c r="A345" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B345" s="39">
         <v>152</v>
@@ -6682,12 +6759,12 @@
         <v>152</v>
       </c>
       <c r="G345" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="47.25">
       <c r="A346" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B346" s="39">
         <v>153</v>
@@ -6696,12 +6773,12 @@
         <v>153</v>
       </c>
       <c r="G346" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="63">
       <c r="A347" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B347" s="39">
         <v>154</v>
@@ -6710,12 +6787,12 @@
         <v>154</v>
       </c>
       <c r="G347" s="19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B348" s="39">
         <v>155</v>
@@ -6724,12 +6801,12 @@
         <v>155</v>
       </c>
       <c r="G348" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="31.5">
       <c r="A349" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B349" s="39">
         <v>156</v>
@@ -6738,12 +6815,12 @@
         <v>156</v>
       </c>
       <c r="G349" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B350" s="39">
         <v>157</v>
@@ -6752,12 +6829,12 @@
         <v>157</v>
       </c>
       <c r="G350" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B351" s="39">
         <v>158</v>
@@ -6766,12 +6843,12 @@
         <v>158</v>
       </c>
       <c r="G351" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="31.5">
       <c r="A352" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B352" s="39">
         <v>159</v>
@@ -6780,12 +6857,12 @@
         <v>159</v>
       </c>
       <c r="G352" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="47.25">
       <c r="A353" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B353" s="39">
         <v>160</v>
@@ -6794,12 +6871,12 @@
         <v>160</v>
       </c>
       <c r="G353" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="47.25">
       <c r="A354" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B354" s="39">
         <v>161</v>
@@ -6808,12 +6885,12 @@
         <v>161</v>
       </c>
       <c r="G354" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="31.5">
       <c r="A355" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B355" s="39">
         <v>162</v>
@@ -6822,12 +6899,12 @@
         <v>162</v>
       </c>
       <c r="G355" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B356" s="39">
         <v>163</v>
@@ -6836,12 +6913,12 @@
         <v>163</v>
       </c>
       <c r="G356" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="31.5">
       <c r="A357" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B357" s="39">
         <v>164</v>
@@ -6850,12 +6927,12 @@
         <v>164</v>
       </c>
       <c r="G357" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="31.5">
       <c r="A358" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B358" s="39">
         <v>165</v>
@@ -6864,12 +6941,12 @@
         <v>165</v>
       </c>
       <c r="G358" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="31.5">
       <c r="A359" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B359" s="39">
         <v>166</v>
@@ -6878,12 +6955,12 @@
         <v>166</v>
       </c>
       <c r="G359" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="31.5">
       <c r="A360" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B360" s="39">
         <v>167</v>
@@ -6892,12 +6969,12 @@
         <v>167</v>
       </c>
       <c r="G360" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B361" s="39">
         <v>168</v>
@@ -6906,12 +6983,12 @@
         <v>168</v>
       </c>
       <c r="G361" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B362" s="39">
         <v>169</v>
@@ -6920,12 +6997,12 @@
         <v>169</v>
       </c>
       <c r="G362" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="31.5">
       <c r="A363" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B363" s="39">
         <v>170</v>
@@ -6934,12 +7011,12 @@
         <v>170</v>
       </c>
       <c r="G363" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B364" s="39">
         <v>171</v>
@@ -6948,12 +7025,12 @@
         <v>171</v>
       </c>
       <c r="G364" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="31.5">
       <c r="A365" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B365" s="39">
         <v>172</v>
@@ -6962,12 +7039,12 @@
         <v>172</v>
       </c>
       <c r="G365" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B366" s="39">
         <v>173</v>
@@ -6976,12 +7053,12 @@
         <v>173</v>
       </c>
       <c r="G366" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B367" s="39">
         <v>174</v>
@@ -6990,12 +7067,12 @@
         <v>174</v>
       </c>
       <c r="G367" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="47.25">
       <c r="A368" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B368" s="39">
         <v>175</v>
@@ -7004,12 +7081,12 @@
         <v>175</v>
       </c>
       <c r="G368" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="31.5">
       <c r="A369" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B369" s="39">
         <v>176</v>
@@ -7018,12 +7095,12 @@
         <v>176</v>
       </c>
       <c r="G369" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B370" s="39">
         <v>177</v>
@@ -7032,12 +7109,12 @@
         <v>177</v>
       </c>
       <c r="G370" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="31.5">
       <c r="A371" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B371" s="39">
         <v>178</v>
@@ -7046,12 +7123,12 @@
         <v>178</v>
       </c>
       <c r="G371" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="31.5">
       <c r="A372" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B372" s="39">
         <v>179</v>
@@ -7060,12 +7137,12 @@
         <v>179</v>
       </c>
       <c r="G372" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B373" s="39">
         <v>180</v>
@@ -7074,12 +7151,12 @@
         <v>180</v>
       </c>
       <c r="G373" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B374" s="39">
         <v>181</v>
@@ -7088,12 +7165,12 @@
         <v>181</v>
       </c>
       <c r="G374" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="31.5">
       <c r="A375" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B375" s="39">
         <v>182</v>
@@ -7102,12 +7179,12 @@
         <v>182</v>
       </c>
       <c r="G375" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B376" s="39">
         <v>183</v>
@@ -7116,12 +7193,12 @@
         <v>183</v>
       </c>
       <c r="G376" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B377" s="39">
         <v>184</v>
@@ -7130,12 +7207,12 @@
         <v>184</v>
       </c>
       <c r="G377" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="378" spans="1:7" ht="31.5">
       <c r="A378" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B378" s="39">
         <v>185</v>
@@ -7144,12 +7221,12 @@
         <v>185</v>
       </c>
       <c r="G378" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="31.5">
       <c r="A379" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B379" s="39">
         <v>186</v>
@@ -7158,12 +7235,12 @@
         <v>186</v>
       </c>
       <c r="G379" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B380" s="39">
         <v>187</v>
@@ -7172,12 +7249,12 @@
         <v>187</v>
       </c>
       <c r="G380" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="31.5">
       <c r="A381" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B381" s="39">
         <v>188</v>
@@ -7186,12 +7263,12 @@
         <v>188</v>
       </c>
       <c r="G381" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="31.5">
       <c r="A382" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B382" s="39">
         <v>189</v>
@@ -7200,12 +7277,12 @@
         <v>189</v>
       </c>
       <c r="G382" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="31.5">
       <c r="A383" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B383" s="39">
         <v>190</v>
@@ -7214,12 +7291,12 @@
         <v>190</v>
       </c>
       <c r="G383" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B384" s="39">
         <v>191</v>
@@ -7228,12 +7305,12 @@
         <v>191</v>
       </c>
       <c r="G384" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B385" s="39">
         <v>192</v>
@@ -7242,12 +7319,12 @@
         <v>192</v>
       </c>
       <c r="G385" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="31.5">
       <c r="A386" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B386" s="39">
         <v>193</v>
@@ -7256,12 +7333,12 @@
         <v>193</v>
       </c>
       <c r="G386" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B387" s="39">
         <v>194</v>
@@ -7270,12 +7347,12 @@
         <v>194</v>
       </c>
       <c r="G387" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="31.5">
       <c r="A388" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B388" s="39">
         <v>195</v>
@@ -7284,12 +7361,12 @@
         <v>195</v>
       </c>
       <c r="G388" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="31.5">
       <c r="A389" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B389" s="39">
         <v>196</v>
@@ -7298,12 +7375,12 @@
         <v>196</v>
       </c>
       <c r="G389" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B390" s="39">
         <v>197</v>
@@ -7312,12 +7389,12 @@
         <v>197</v>
       </c>
       <c r="G390" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B391" s="39">
         <v>198</v>
@@ -7326,12 +7403,12 @@
         <v>198</v>
       </c>
       <c r="G391" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B392" s="39">
         <v>199</v>
@@ -7340,12 +7417,12 @@
         <v>199</v>
       </c>
       <c r="G392" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B393" s="39">
         <v>200</v>
@@ -7354,12 +7431,12 @@
         <v>200</v>
       </c>
       <c r="G393" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B394" s="39">
         <v>201</v>
@@ -7368,12 +7445,12 @@
         <v>201</v>
       </c>
       <c r="G394" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B395" s="39">
         <v>202</v>
@@ -7382,12 +7459,12 @@
         <v>202</v>
       </c>
       <c r="G395" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="396" spans="1:7" ht="31.5">
       <c r="A396" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B396" s="39">
         <v>203</v>
@@ -7396,12 +7473,12 @@
         <v>203</v>
       </c>
       <c r="G396" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="397" spans="1:7" ht="31.5">
       <c r="A397" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B397" s="39">
         <v>204</v>
@@ -7410,12 +7487,12 @@
         <v>204</v>
       </c>
       <c r="G397" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="398" spans="1:7" ht="31.5">
       <c r="A398" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B398" s="39">
         <v>205</v>
@@ -7424,12 +7501,12 @@
         <v>205</v>
       </c>
       <c r="G398" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="399" spans="1:7">
       <c r="A399" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B399" s="39">
         <v>206</v>
@@ -7438,12 +7515,12 @@
         <v>206</v>
       </c>
       <c r="G399" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="400" spans="1:7" ht="31.5">
       <c r="A400" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B400" s="39">
         <v>207</v>
@@ -7452,12 +7529,12 @@
         <v>207</v>
       </c>
       <c r="G400" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="401" spans="1:7" ht="31.5">
       <c r="A401" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B401" s="39">
         <v>208</v>
@@ -7466,12 +7543,12 @@
         <v>208</v>
       </c>
       <c r="G401" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="402" spans="1:7" ht="31.5">
       <c r="A402" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B402" s="39">
         <v>209</v>
@@ -7480,12 +7557,12 @@
         <v>209</v>
       </c>
       <c r="G402" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B403" s="39">
         <v>210</v>
@@ -7494,12 +7571,12 @@
         <v>210</v>
       </c>
       <c r="G403" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B404" s="39">
         <v>211</v>
@@ -7508,12 +7585,12 @@
         <v>211</v>
       </c>
       <c r="G404" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="31.5">
       <c r="A405" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B405" s="39">
         <v>212</v>
@@ -7522,12 +7599,12 @@
         <v>212</v>
       </c>
       <c r="G405" s="19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="31.5">
       <c r="A406" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B406" s="39">
         <v>213</v>
@@ -7536,12 +7613,12 @@
         <v>213</v>
       </c>
       <c r="G406" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="407" spans="1:7" ht="47.25">
       <c r="A407" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B407" s="39">
         <v>214</v>
@@ -7550,12 +7627,12 @@
         <v>214</v>
       </c>
       <c r="G407" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="408" spans="1:7" ht="31.5">
       <c r="A408" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B408" s="39">
         <v>215</v>
@@ -7564,12 +7641,12 @@
         <v>215</v>
       </c>
       <c r="G408" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="409" spans="1:7" ht="31.5">
       <c r="A409" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B409" s="39">
         <v>216</v>
@@ -7578,12 +7655,12 @@
         <v>216</v>
       </c>
       <c r="G409" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B410" s="39">
         <v>217</v>
@@ -7592,12 +7669,12 @@
         <v>217</v>
       </c>
       <c r="G410" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B411" s="39">
         <v>218</v>
@@ -7606,12 +7683,12 @@
         <v>218</v>
       </c>
       <c r="G411" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="412" spans="1:7">
       <c r="A412" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B412" s="39">
         <v>219</v>
@@ -7620,12 +7697,12 @@
         <v>219</v>
       </c>
       <c r="G412" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="31.5">
       <c r="A413" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B413" s="39">
         <v>220</v>
@@ -7634,12 +7711,12 @@
         <v>220</v>
       </c>
       <c r="G413" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B414" s="39">
         <v>221</v>
@@ -7648,12 +7725,12 @@
         <v>221</v>
       </c>
       <c r="G414" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="1:7" ht="31.5">
       <c r="A415" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B415" s="39">
         <v>222</v>
@@ -7662,12 +7739,12 @@
         <v>222</v>
       </c>
       <c r="G415" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="416" spans="1:7" ht="31.5">
       <c r="A416" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B416" s="39">
         <v>223</v>
@@ -7676,12 +7753,12 @@
         <v>223</v>
       </c>
       <c r="G416" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B417" s="39">
         <v>224</v>
@@ -7690,12 +7767,12 @@
         <v>224</v>
       </c>
       <c r="G417" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="31.5">
       <c r="A418" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B418" s="39">
         <v>225</v>
@@ -7704,12 +7781,12 @@
         <v>225</v>
       </c>
       <c r="G418" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B419" s="39">
         <v>226</v>
@@ -7718,12 +7795,12 @@
         <v>226</v>
       </c>
       <c r="G419" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="47.25">
       <c r="A420" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B420" s="39">
         <v>227</v>
@@ -7732,12 +7809,12 @@
         <v>227</v>
       </c>
       <c r="G420" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B421" s="39">
         <v>228</v>
@@ -7746,12 +7823,12 @@
         <v>228</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="31.5">
       <c r="A422" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B422" s="39">
         <v>229</v>
@@ -7760,12 +7837,12 @@
         <v>229</v>
       </c>
       <c r="G422" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B423" s="39">
         <v>230</v>
@@ -7774,12 +7851,12 @@
         <v>230</v>
       </c>
       <c r="G423" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="31.5">
       <c r="A424" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B424" s="39">
         <v>231</v>
@@ -7788,12 +7865,12 @@
         <v>231</v>
       </c>
       <c r="G424" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B425" s="39">
         <v>232</v>
@@ -7802,12 +7879,12 @@
         <v>232</v>
       </c>
       <c r="G425" s="19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B426" s="39">
         <v>233</v>
@@ -7816,12 +7893,12 @@
         <v>233</v>
       </c>
       <c r="G426" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="31.5">
       <c r="A427" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B427" s="39">
         <v>234</v>
@@ -7830,12 +7907,12 @@
         <v>234</v>
       </c>
       <c r="G427" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="428" spans="1:7">
       <c r="A428" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B428" s="39">
         <v>235</v>
@@ -7844,12 +7921,12 @@
         <v>235</v>
       </c>
       <c r="G428" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B429" s="39">
         <v>236</v>
@@ -7858,12 +7935,12 @@
         <v>236</v>
       </c>
       <c r="G429" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="31.5">
       <c r="A430" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B430" s="39">
         <v>237</v>
@@ -7872,12 +7949,12 @@
         <v>237</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="47.25">
       <c r="A431" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B431" s="39">
         <v>238</v>
@@ -7886,12 +7963,12 @@
         <v>238</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="432" spans="1:7">
       <c r="A432" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B432" s="39">
         <v>239</v>
@@ -7900,12 +7977,12 @@
         <v>239</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="31.5">
       <c r="A433" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B433" s="39">
         <v>240</v>
@@ -7914,12 +7991,12 @@
         <v>240</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="434" spans="1:7" ht="31.5">
       <c r="A434" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B434" s="39">
         <v>241</v>
@@ -7928,12 +8005,12 @@
         <v>241</v>
       </c>
       <c r="G434" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="435" spans="1:7" ht="31.5">
       <c r="A435" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B435" s="39">
         <v>242</v>
@@ -7942,12 +8019,12 @@
         <v>242</v>
       </c>
       <c r="G435" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B436" s="39">
         <v>243</v>
@@ -7956,12 +8033,12 @@
         <v>243</v>
       </c>
       <c r="G436" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B437" s="39">
         <v>244</v>
@@ -7970,12 +8047,12 @@
         <v>244</v>
       </c>
       <c r="G437" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="438" spans="1:7" ht="31.5">
       <c r="A438" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B438" s="39">
         <v>245</v>
@@ -7984,12 +8061,12 @@
         <v>245</v>
       </c>
       <c r="G438" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="439" spans="1:7" ht="47.25">
       <c r="A439" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B439" s="39">
         <v>246</v>
@@ -7998,12 +8075,12 @@
         <v>246</v>
       </c>
       <c r="G439" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="440" spans="1:7" ht="47.25">
       <c r="A440" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B440" s="39">
         <v>247</v>
@@ -8012,12 +8089,12 @@
         <v>247</v>
       </c>
       <c r="G440" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="441" spans="1:7" ht="31.5">
       <c r="A441" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B441" s="39">
         <v>248</v>
@@ -8026,12 +8103,12 @@
         <v>248</v>
       </c>
       <c r="G441" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="47.25">
       <c r="A442" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B442" s="39">
         <v>249</v>
@@ -8040,12 +8117,12 @@
         <v>249</v>
       </c>
       <c r="G442" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="443" spans="1:7" ht="31.5">
       <c r="A443" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B443" s="39">
         <v>250</v>
@@ -8054,12 +8131,12 @@
         <v>250</v>
       </c>
       <c r="G443" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="31.5">
       <c r="A444" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B444" s="39">
         <v>251</v>
@@ -8068,12 +8145,12 @@
         <v>251</v>
       </c>
       <c r="G444" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="31.5">
       <c r="A445" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B445" s="39">
         <v>252</v>
@@ -8082,12 +8159,12 @@
         <v>252</v>
       </c>
       <c r="G445" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="446" spans="1:7" ht="31.5">
       <c r="A446" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B446" s="39">
         <v>253</v>
@@ -8096,12 +8173,12 @@
         <v>253</v>
       </c>
       <c r="G446" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:7" ht="47.25">
       <c r="A447" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B447" s="39">
         <v>254</v>
@@ -8110,12 +8187,12 @@
         <v>254</v>
       </c>
       <c r="G447" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B448" s="39">
         <v>255</v>
@@ -8124,12 +8201,12 @@
         <v>255</v>
       </c>
       <c r="G448" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="449" spans="1:7" ht="31.5">
       <c r="A449" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B449" s="39">
         <v>256</v>
@@ -8138,12 +8215,12 @@
         <v>256</v>
       </c>
       <c r="G449" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="47.25">
       <c r="A450" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B450" s="39">
         <v>257</v>
@@ -8152,12 +8229,12 @@
         <v>257</v>
       </c>
       <c r="G450" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="451" spans="1:7" ht="31.5">
       <c r="A451" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B451" s="39">
         <v>258</v>
@@ -8166,12 +8243,12 @@
         <v>258</v>
       </c>
       <c r="G451" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="452" spans="1:7" ht="31.5">
       <c r="A452" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B452" s="39">
         <v>259</v>
@@ -8180,12 +8257,12 @@
         <v>259</v>
       </c>
       <c r="G452" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="453" spans="1:7" ht="47.25">
       <c r="A453" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B453" s="39">
         <v>260</v>
@@ -8194,12 +8271,12 @@
         <v>260</v>
       </c>
       <c r="G453" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B454" s="39">
         <v>261</v>
@@ -8208,12 +8285,12 @@
         <v>261</v>
       </c>
       <c r="G454" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B455" s="39">
         <v>262</v>
@@ -8222,12 +8299,12 @@
         <v>262</v>
       </c>
       <c r="G455" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B456" s="39">
         <v>263</v>
@@ -8236,12 +8313,12 @@
         <v>263</v>
       </c>
       <c r="G456" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="457" spans="1:7" ht="31.5">
       <c r="A457" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B457" s="39">
         <v>264</v>
@@ -8250,12 +8327,12 @@
         <v>264</v>
       </c>
       <c r="G457" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="458" spans="1:7" ht="31.5">
       <c r="A458" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B458" s="39">
         <v>265</v>
@@ -8264,12 +8341,12 @@
         <v>265</v>
       </c>
       <c r="G458" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B459" s="39">
         <v>266</v>
@@ -8278,12 +8355,12 @@
         <v>266</v>
       </c>
       <c r="G459" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="31.5">
       <c r="A460" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B460" s="39">
         <v>267</v>
@@ -8292,12 +8369,12 @@
         <v>267</v>
       </c>
       <c r="G460" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="461" spans="1:7">
       <c r="A461" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B461" s="39">
         <v>268</v>
@@ -8306,12 +8383,12 @@
         <v>268</v>
       </c>
       <c r="G461" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="462" spans="1:7" ht="31.5">
       <c r="A462" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B462" s="39">
         <v>269</v>
@@ -8320,12 +8397,12 @@
         <v>269</v>
       </c>
       <c r="G462" s="19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="463" spans="1:7" ht="31.5">
       <c r="A463" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B463" s="39">
         <v>270</v>
@@ -8334,12 +8411,12 @@
         <v>270</v>
       </c>
       <c r="G463" s="19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="31.5">
       <c r="A464" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B464" s="39">
         <v>271</v>
@@ -8348,12 +8425,12 @@
         <v>271</v>
       </c>
       <c r="G464" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="465" spans="1:7" ht="31.5">
       <c r="A465" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B465" s="39">
         <v>272</v>
@@ -8362,12 +8439,12 @@
         <v>272</v>
       </c>
       <c r="G465" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B466" s="39">
         <v>273</v>
@@ -8376,12 +8453,12 @@
         <v>273</v>
       </c>
       <c r="G466" s="19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="31.5">
       <c r="A467" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B467" s="39">
         <v>274</v>
@@ -8390,12 +8467,12 @@
         <v>274</v>
       </c>
       <c r="G467" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="31.5">
       <c r="A468" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B468" s="39">
         <v>275</v>
@@ -8404,12 +8481,12 @@
         <v>275</v>
       </c>
       <c r="G468" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="469" spans="1:7" ht="31.5">
       <c r="A469" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B469" s="39">
         <v>276</v>
@@ -8418,12 +8495,12 @@
         <v>276</v>
       </c>
       <c r="G469" s="19" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="470" spans="1:7" ht="31.5">
       <c r="A470" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B470" s="39">
         <v>277</v>
@@ -8432,12 +8509,12 @@
         <v>277</v>
       </c>
       <c r="G470" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="471" spans="1:7" ht="31.5">
       <c r="A471" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B471" s="39">
         <v>278</v>
@@ -8446,12 +8523,12 @@
         <v>278</v>
       </c>
       <c r="G471" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="472" spans="1:7">
       <c r="A472" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B472" s="39">
         <v>279</v>
@@ -8460,12 +8537,12 @@
         <v>279</v>
       </c>
       <c r="G472" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B473" s="39">
         <v>280</v>
@@ -8474,12 +8551,12 @@
         <v>280</v>
       </c>
       <c r="G473" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B474" s="39">
         <v>281</v>
@@ -8488,12 +8565,12 @@
         <v>281</v>
       </c>
       <c r="G474" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B475" s="39">
         <v>282</v>
@@ -8502,12 +8579,12 @@
         <v>282</v>
       </c>
       <c r="G475" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B476" s="39">
         <v>283</v>
@@ -8516,12 +8593,12 @@
         <v>283</v>
       </c>
       <c r="G476" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="477" spans="1:7" ht="31.5">
       <c r="A477" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B477" s="39">
         <v>284</v>
@@ -8530,12 +8607,12 @@
         <v>284</v>
       </c>
       <c r="G477" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="478" spans="1:7" ht="31.5">
       <c r="A478" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B478" s="39">
         <v>285</v>
@@ -8544,12 +8621,12 @@
         <v>285</v>
       </c>
       <c r="G478" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="479" spans="1:7" ht="31.5">
       <c r="A479" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B479" s="39">
         <v>286</v>
@@ -8558,12 +8635,12 @@
         <v>286</v>
       </c>
       <c r="G479" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B480" s="39">
         <v>287</v>
@@ -8572,7 +8649,7 @@
         <v>287</v>
       </c>
       <c r="G480" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -8589,13 +8666,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="44.125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="42.25" style="41" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8610,18 +8688,18 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>